--- a/2Dresults.xlsx
+++ b/2Dresults.xlsx
@@ -47,11 +47,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -84,17 +84,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -169,11 +169,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1339645452"/>
-        <c:axId val="1855254113"/>
+        <c:axId val="421611248"/>
+        <c:axId val="1753967701"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339645452"/>
+        <c:axId val="421611248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -218,10 +218,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1855254113"/>
+        <c:crossAx val="1753967701"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1855254113"/>
+        <c:axId val="1753967701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -290,7 +290,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339645452"/>
+        <c:crossAx val="421611248"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -381,11 +381,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2025839068"/>
-        <c:axId val="1520362489"/>
+        <c:axId val="859258851"/>
+        <c:axId val="1484549707"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2025839068"/>
+        <c:axId val="859258851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,10 +430,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1520362489"/>
+        <c:crossAx val="1484549707"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1520362489"/>
+        <c:axId val="1484549707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,7 +502,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2025839068"/>
+        <c:crossAx val="859258851"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -593,11 +593,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1177155817"/>
-        <c:axId val="1699040531"/>
+        <c:axId val="70538981"/>
+        <c:axId val="2083281885"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1177155817"/>
+        <c:axId val="70538981"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,10 +642,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1699040531"/>
+        <c:crossAx val="2083281885"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1699040531"/>
+        <c:axId val="2083281885"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,7 +714,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1177155817"/>
+        <c:crossAx val="70538981"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -805,11 +805,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="450892507"/>
-        <c:axId val="820181261"/>
+        <c:axId val="1372092322"/>
+        <c:axId val="888802629"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="450892507"/>
+        <c:axId val="1372092322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,10 +854,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="820181261"/>
+        <c:crossAx val="888802629"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="820181261"/>
+        <c:axId val="888802629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +926,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450892507"/>
+        <c:crossAx val="1372092322"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1275,22 +1275,22 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>4.0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>5.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>10.0</v>
       </c>
     </row>
@@ -1298,19 +1298,19 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1.0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>100.0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>25.0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>16.0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>4.0</v>
       </c>
     </row>
@@ -1318,19 +1318,19 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>500.0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5.0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>20.0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>31.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>125.0</v>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
       <c r="C5" s="4">
         <v>7.1277E7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2.17205E7</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2.0324096E7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1.94735E7</v>
       </c>
     </row>
@@ -1358,19 +1358,19 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>41529.0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>142554.0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>43441.0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>40976.0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>38947.0</v>
       </c>
     </row>
@@ -1385,10 +1385,10 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2">
@@ -1405,7 +1405,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2">
@@ -1425,27 +1425,27 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1000.0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>10.0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>40.0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>62.0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>250.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4">
@@ -1454,33 +1454,33 @@
       <c r="C12" s="4">
         <v>7.2712E7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>3.3067E7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>3.2571328E7</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>3.2509E7</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
-        <v>41529.0</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="5">
+        <v>33671.0</v>
+      </c>
+      <c r="C13" s="2">
         <v>72712.0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>33067.0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>32834.0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>32509.0</v>
       </c>
     </row>
